--- a/teaching/traditional_assets/database/data/belgium/belgium_insurance_general.xlsx
+++ b/teaching/traditional_assets/database/data/belgium/belgium_insurance_general.xlsx
@@ -591,31 +591,31 @@
         </is>
       </c>
       <c r="D2">
-        <v>0.0111</v>
+        <v>-0.04</v>
       </c>
       <c r="E2">
-        <v>0.249</v>
+        <v>0.0669</v>
       </c>
       <c r="F2">
-        <v>0.03240000000000001</v>
+        <v>-0.00722</v>
       </c>
       <c r="G2">
-        <v>0.1272446807818226</v>
+        <v>0.1397621963148399</v>
       </c>
       <c r="H2">
-        <v>0.1272446807818226</v>
+        <v>0.1397621963148399</v>
       </c>
       <c r="I2">
-        <v>0.1093348235134955</v>
+        <v>0.1388130103685885</v>
       </c>
       <c r="J2">
-        <v>0.0911261317336487</v>
+        <v>0.1142119803225112</v>
       </c>
       <c r="K2">
-        <v>1124</v>
+        <v>1286.5</v>
       </c>
       <c r="L2">
-        <v>0.07315755560039312</v>
+        <v>0.09321585647728838</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -639,73 +639,73 @@
         <v>0</v>
       </c>
       <c r="U2">
-        <v>3167.5</v>
+        <v>2604.2</v>
       </c>
       <c r="V2">
-        <v>0.2794984469857405</v>
+        <v>0.2612193311533292</v>
       </c>
       <c r="W2">
-        <v>0.1034019613254586</v>
+        <v>0.1051242451727829</v>
       </c>
       <c r="X2">
-        <v>0.06227438319895293</v>
+        <v>0.06126085697584728</v>
       </c>
       <c r="Y2">
-        <v>0.04112757812650567</v>
+        <v>0.04386338819693564</v>
       </c>
       <c r="Z2">
-        <v>1.080301804328444</v>
+        <v>0.9446798316164139</v>
       </c>
       <c r="AA2">
-        <v>0.09844372453333222</v>
+        <v>0.1078937543396471</v>
       </c>
       <c r="AB2">
-        <v>0.04905997023289172</v>
+        <v>0.04376391170335094</v>
       </c>
       <c r="AC2">
-        <v>0.0493837543004405</v>
+        <v>0.06412984263629615</v>
       </c>
       <c r="AD2">
-        <v>5539.1</v>
+        <v>6765.5</v>
       </c>
       <c r="AE2">
-        <v>649.8441902815209</v>
+        <v>0</v>
       </c>
       <c r="AF2">
-        <v>6188.944190281522</v>
+        <v>6765.5</v>
       </c>
       <c r="AG2">
-        <v>3021.444190281522</v>
+        <v>4161.3</v>
       </c>
       <c r="AH2">
-        <v>0.3532150751130265</v>
+        <v>0.4042748985652737</v>
       </c>
       <c r="AI2">
-        <v>0.2969451620857505</v>
+        <v>0.2987226301544059</v>
       </c>
       <c r="AJ2">
-        <v>0.2104913466866599</v>
+        <v>0.2944864727154352</v>
       </c>
       <c r="AK2">
-        <v>0.1709489171405554</v>
+        <v>0.207609297591786</v>
       </c>
       <c r="AL2">
-        <v>103.7</v>
+        <v>117.5</v>
       </c>
       <c r="AM2">
-        <v>103.7</v>
+        <v>117.5</v>
       </c>
       <c r="AN2">
-        <v>2.174840001570537</v>
+        <v>2.950115554005145</v>
       </c>
       <c r="AO2">
-        <v>16.60945033751205</v>
+        <v>16.30468085106383</v>
       </c>
       <c r="AP2">
-        <v>1.186322270321379</v>
+        <v>1.814546723062835</v>
       </c>
       <c r="AQ2">
-        <v>16.60945033751205</v>
+        <v>16.30468085106383</v>
       </c>
     </row>
     <row r="3">
@@ -725,31 +725,31 @@
         </is>
       </c>
       <c r="D3">
-        <v>0.0111</v>
+        <v>-0.04</v>
       </c>
       <c r="E3">
-        <v>0.249</v>
+        <v>0.0669</v>
       </c>
       <c r="F3">
-        <v>0.03240000000000001</v>
+        <v>-0.00722</v>
       </c>
       <c r="G3">
-        <v>0.1272446807818226</v>
+        <v>0.1397621963148399</v>
       </c>
       <c r="H3">
-        <v>0.1272446807818226</v>
+        <v>0.1397621963148399</v>
       </c>
       <c r="I3">
-        <v>0.1093348235134955</v>
+        <v>0.1388130103685885</v>
       </c>
       <c r="J3">
-        <v>0.0911261317336487</v>
+        <v>0.1142119803225112</v>
       </c>
       <c r="K3">
-        <v>1124</v>
+        <v>1286.5</v>
       </c>
       <c r="L3">
-        <v>0.07315755560039312</v>
+        <v>0.09321585647728838</v>
       </c>
       <c r="M3">
         <v>-0</v>
@@ -773,73 +773,73 @@
         <v>0</v>
       </c>
       <c r="U3">
-        <v>3167.5</v>
+        <v>2604.2</v>
       </c>
       <c r="V3">
-        <v>0.2794984469857405</v>
+        <v>0.2612193311533292</v>
       </c>
       <c r="W3">
-        <v>0.1034019613254586</v>
+        <v>0.1051242451727829</v>
       </c>
       <c r="X3">
-        <v>0.06227438319895293</v>
+        <v>0.06126085697584728</v>
       </c>
       <c r="Y3">
-        <v>0.04112757812650567</v>
+        <v>0.04386338819693564</v>
       </c>
       <c r="Z3">
-        <v>1.080301804328444</v>
+        <v>0.9446798316164139</v>
       </c>
       <c r="AA3">
-        <v>0.09844372453333222</v>
+        <v>0.1078937543396471</v>
       </c>
       <c r="AB3">
-        <v>0.04905997023289172</v>
+        <v>0.04376391170335094</v>
       </c>
       <c r="AC3">
-        <v>0.0493837543004405</v>
+        <v>0.06412984263629615</v>
       </c>
       <c r="AD3">
-        <v>5539.1</v>
+        <v>6765.5</v>
       </c>
       <c r="AE3">
-        <v>649.8441902815209</v>
+        <v>0</v>
       </c>
       <c r="AF3">
-        <v>6188.944190281522</v>
+        <v>6765.5</v>
       </c>
       <c r="AG3">
-        <v>3021.444190281522</v>
+        <v>4161.3</v>
       </c>
       <c r="AH3">
-        <v>0.3532150751130265</v>
+        <v>0.4042748985652737</v>
       </c>
       <c r="AI3">
-        <v>0.2969451620857505</v>
+        <v>0.2987226301544059</v>
       </c>
       <c r="AJ3">
-        <v>0.2104913466866599</v>
+        <v>0.2944864727154352</v>
       </c>
       <c r="AK3">
-        <v>0.1709489171405554</v>
+        <v>0.207609297591786</v>
       </c>
       <c r="AL3">
-        <v>103.7</v>
+        <v>117.5</v>
       </c>
       <c r="AM3">
-        <v>103.7</v>
+        <v>117.5</v>
       </c>
       <c r="AN3">
-        <v>2.174840001570537</v>
+        <v>2.950115554005145</v>
       </c>
       <c r="AO3">
-        <v>16.60945033751205</v>
+        <v>16.30468085106383</v>
       </c>
       <c r="AP3">
-        <v>1.186322270321379</v>
+        <v>1.814546723062835</v>
       </c>
       <c r="AQ3">
-        <v>16.60945033751205</v>
+        <v>16.30468085106383</v>
       </c>
     </row>
   </sheetData>
